--- a/authors_ref.xlsx
+++ b/authors_ref.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="489">
   <si>
     <t>Автор публикации</t>
   </si>
@@ -2098,7 +2098,7 @@
         <v>413</v>
       </c>
       <c r="F13">
-        <v>9394056008</v>
+        <v>3542834505</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2578,7 +2578,7 @@
         <v>429</v>
       </c>
       <c r="F37">
-        <v>4390038867</v>
+        <v>1199013404</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2838,7 +2838,7 @@
         <v>413</v>
       </c>
       <c r="F50">
-        <v>3270236568</v>
+        <v>3822093366</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2998,7 +2998,7 @@
         <v>447</v>
       </c>
       <c r="F58">
-        <v>1757860196</v>
+        <v>1224522</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3358,7 +3358,7 @@
         <v>457</v>
       </c>
       <c r="F76">
-        <v>9036402995</v>
+        <v>7122155819</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3537,8 +3537,8 @@
       <c r="E85" t="s">
         <v>460</v>
       </c>
-      <c r="F85" t="s">
-        <v>488</v>
+      <c r="F85">
+        <v>6935358839</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3578,7 +3578,7 @@
         <v>461</v>
       </c>
       <c r="F87">
-        <v>3849498958</v>
+        <v>1124979735</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3898,7 +3898,7 @@
         <v>467</v>
       </c>
       <c r="F103">
-        <v>3032071343</v>
+        <v>5883885219</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3998,7 +3998,7 @@
         <v>468</v>
       </c>
       <c r="F108">
-        <v>6457298105</v>
+        <v>6373720785</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4438,7 +4438,7 @@
         <v>476</v>
       </c>
       <c r="F130">
-        <v>4433944517</v>
+        <v>2552944222</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4698,7 +4698,7 @@
         <v>461</v>
       </c>
       <c r="F143">
-        <v>1596881188</v>
+        <v>7683143474</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4838,7 +4838,7 @@
         <v>467</v>
       </c>
       <c r="F150">
-        <v>3195002670</v>
+        <v>7749817740</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4918,7 +4918,7 @@
         <v>481</v>
       </c>
       <c r="F154">
-        <v>2221468438</v>
+        <v>5013300330</v>
       </c>
     </row>
     <row r="155" spans="1:6">
